--- a/natmiOut/OldD7/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.30516578172753</v>
+        <v>1.465169666666667</v>
       </c>
       <c r="H2">
-        <v>1.30516578172753</v>
+        <v>4.395509000000001</v>
       </c>
       <c r="I2">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245693</v>
       </c>
       <c r="J2">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245692</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="N2">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="O2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="P2">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="Q2">
-        <v>134.4358302600658</v>
+        <v>151.5388918640039</v>
       </c>
       <c r="R2">
-        <v>134.4358302600658</v>
+        <v>1363.850026776035</v>
       </c>
       <c r="S2">
-        <v>0.007594950782152114</v>
+        <v>0.008027802861765333</v>
       </c>
       <c r="T2">
-        <v>0.007594950782152114</v>
+        <v>0.008027802861765332</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.30516578172753</v>
+        <v>1.465169666666667</v>
       </c>
       <c r="H3">
-        <v>1.30516578172753</v>
+        <v>4.395509000000001</v>
       </c>
       <c r="I3">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245693</v>
       </c>
       <c r="J3">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245692</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="N3">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="O3">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="P3">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="Q3">
-        <v>281.0556380578603</v>
+        <v>316.6679097831171</v>
       </c>
       <c r="R3">
-        <v>281.0556380578603</v>
+        <v>2850.011188048054</v>
       </c>
       <c r="S3">
-        <v>0.01587823524402997</v>
+        <v>0.01677554534757692</v>
       </c>
       <c r="T3">
-        <v>0.01587823524402997</v>
+        <v>0.01677554534757692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.30516578172753</v>
+        <v>1.465169666666667</v>
       </c>
       <c r="H4">
-        <v>1.30516578172753</v>
+        <v>4.395509000000001</v>
       </c>
       <c r="I4">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245693</v>
       </c>
       <c r="J4">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245692</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="N4">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="O4">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="P4">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="Q4">
-        <v>77.85880880776547</v>
+        <v>104.9168805011417</v>
       </c>
       <c r="R4">
-        <v>77.85880880776547</v>
+        <v>944.2519245102751</v>
       </c>
       <c r="S4">
-        <v>0.004398632564756259</v>
+        <v>0.005557992560024933</v>
       </c>
       <c r="T4">
-        <v>0.004398632564756259</v>
+        <v>0.005557992560024932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.30516578172753</v>
+        <v>1.465169666666667</v>
       </c>
       <c r="H5">
-        <v>1.30516578172753</v>
+        <v>4.395509000000001</v>
       </c>
       <c r="I5">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245693</v>
       </c>
       <c r="J5">
-        <v>0.02954769670567876</v>
+        <v>0.03229814945245692</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="N5">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="O5">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="P5">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="Q5">
-        <v>29.6641903591061</v>
+        <v>36.56066879592734</v>
       </c>
       <c r="R5">
-        <v>29.6641903591061</v>
+        <v>329.046019163346</v>
       </c>
       <c r="S5">
-        <v>0.001675878114740419</v>
+        <v>0.001936808683089741</v>
       </c>
       <c r="T5">
-        <v>0.001675878114740419</v>
+        <v>0.00193680868308974</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.1362268428217</v>
+        <v>40.16021866666667</v>
       </c>
       <c r="H6">
-        <v>40.1362268428217</v>
+        <v>120.480656</v>
       </c>
       <c r="I6">
-        <v>0.9086455332075177</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="J6">
-        <v>0.9086455332075177</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="N6">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="O6">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="P6">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="Q6">
-        <v>4134.146829975278</v>
+        <v>4153.672555621717</v>
       </c>
       <c r="R6">
-        <v>4134.146829975278</v>
+        <v>37383.05300059544</v>
       </c>
       <c r="S6">
-        <v>0.2335585806188114</v>
+        <v>0.2200416277214231</v>
       </c>
       <c r="T6">
-        <v>0.2335585806188114</v>
+        <v>0.220041627721423</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.1362268428217</v>
+        <v>40.16021866666667</v>
       </c>
       <c r="H7">
-        <v>40.1362268428217</v>
+        <v>120.480656</v>
       </c>
       <c r="I7">
-        <v>0.9086455332075177</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="J7">
-        <v>0.9086455332075177</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="N7">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="O7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="P7">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="Q7">
-        <v>8642.973178176091</v>
+        <v>8679.849706784529</v>
       </c>
       <c r="R7">
-        <v>8642.973178176091</v>
+        <v>78118.64736106076</v>
       </c>
       <c r="S7">
-        <v>0.4882846765830367</v>
+        <v>0.4598167602964334</v>
       </c>
       <c r="T7">
-        <v>0.4882846765830367</v>
+        <v>0.4598167602964333</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>40.1362268428217</v>
+        <v>40.16021866666667</v>
       </c>
       <c r="H8">
-        <v>40.1362268428217</v>
+        <v>120.480656</v>
       </c>
       <c r="I8">
-        <v>0.9086455332075177</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="J8">
-        <v>0.9086455332075177</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="N8">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="O8">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="P8">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="Q8">
-        <v>2394.30029178679</v>
+        <v>2875.765830135067</v>
       </c>
       <c r="R8">
-        <v>2394.30029178679</v>
+        <v>25881.8924712156</v>
       </c>
       <c r="S8">
-        <v>0.1352659691886833</v>
+        <v>0.152344265402465</v>
       </c>
       <c r="T8">
-        <v>0.1352659691886833</v>
+        <v>0.152344265402465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>40.1362268428217</v>
+        <v>40.16021866666667</v>
       </c>
       <c r="H9">
-        <v>40.1362268428217</v>
+        <v>120.480656</v>
       </c>
       <c r="I9">
-        <v>0.9086455332075177</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="J9">
-        <v>0.9086455332075177</v>
+        <v>0.8852904711645572</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="N9">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="O9">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="P9">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="Q9">
-        <v>912.2279253949071</v>
+        <v>1002.125888112629</v>
       </c>
       <c r="R9">
-        <v>912.2279253949071</v>
+        <v>9019.132993013665</v>
       </c>
       <c r="S9">
-        <v>0.05153630681698636</v>
+        <v>0.05308781774423577</v>
       </c>
       <c r="T9">
-        <v>0.05153630681698636</v>
+        <v>0.05308781774423577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.944833629450663</v>
+        <v>1.279948333333333</v>
       </c>
       <c r="H10">
-        <v>0.944833629450663</v>
+        <v>3.839845</v>
       </c>
       <c r="I10">
-        <v>0.02139012370013393</v>
+        <v>0.02821513678717742</v>
       </c>
       <c r="J10">
-        <v>0.02139012370013393</v>
+        <v>0.02821513678717743</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="N10">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="O10">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="P10">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="Q10">
-        <v>97.32058196063566</v>
+        <v>132.3819053105194</v>
       </c>
       <c r="R10">
-        <v>97.32058196063566</v>
+        <v>1191.437147794675</v>
       </c>
       <c r="S10">
-        <v>0.005498125229349606</v>
+        <v>0.007012957698354229</v>
       </c>
       <c r="T10">
-        <v>0.005498125229349606</v>
+        <v>0.007012957698354229</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.944833629450663</v>
+        <v>1.279948333333333</v>
       </c>
       <c r="H11">
-        <v>0.944833629450663</v>
+        <v>3.839845</v>
       </c>
       <c r="I11">
-        <v>0.02139012370013393</v>
+        <v>0.02821513678717742</v>
       </c>
       <c r="J11">
-        <v>0.02139012370013393</v>
+        <v>0.02821513678717743</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="N11">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="O11">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="P11">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="Q11">
-        <v>203.4613704262875</v>
+        <v>276.635923175485</v>
       </c>
       <c r="R11">
-        <v>203.4613704262875</v>
+        <v>2489.723308579365</v>
       </c>
       <c r="S11">
-        <v>0.01149454793017259</v>
+        <v>0.01465484291470373</v>
       </c>
       <c r="T11">
-        <v>0.01149454793017259</v>
+        <v>0.01465484291470373</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.944833629450663</v>
+        <v>1.279948333333333</v>
       </c>
       <c r="H12">
-        <v>0.944833629450663</v>
+        <v>3.839845</v>
       </c>
       <c r="I12">
-        <v>0.02139012370013393</v>
+        <v>0.02821513678717742</v>
       </c>
       <c r="J12">
-        <v>0.02139012370013393</v>
+        <v>0.02821513678717743</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="N12">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="O12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="P12">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="Q12">
-        <v>56.36343056219017</v>
+        <v>91.65367628820833</v>
       </c>
       <c r="R12">
-        <v>56.36343056219017</v>
+        <v>824.8830865938751</v>
       </c>
       <c r="S12">
-        <v>0.003184251402360277</v>
+        <v>0.004855371685429135</v>
       </c>
       <c r="T12">
-        <v>0.003184251402360277</v>
+        <v>0.004855371685429136</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.944833629450663</v>
+        <v>1.279948333333333</v>
       </c>
       <c r="H13">
-        <v>0.944833629450663</v>
+        <v>3.839845</v>
       </c>
       <c r="I13">
-        <v>0.02139012370013393</v>
+        <v>0.02821513678717742</v>
       </c>
       <c r="J13">
-        <v>0.02139012370013393</v>
+        <v>0.02821513678717743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="N13">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="O13">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="P13">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="Q13">
-        <v>21.47445560870575</v>
+        <v>31.93880419143667</v>
       </c>
       <c r="R13">
-        <v>21.47445560870575</v>
+        <v>287.44923772293</v>
       </c>
       <c r="S13">
-        <v>0.001213199138251454</v>
+        <v>0.001691964488690325</v>
       </c>
       <c r="T13">
-        <v>0.001213199138251454</v>
+        <v>0.001691964488690325</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.78526348099155</v>
+        <v>2.458552333333333</v>
       </c>
       <c r="H14">
-        <v>1.78526348099155</v>
+        <v>7.375657</v>
       </c>
       <c r="I14">
-        <v>0.04041664638666947</v>
+        <v>0.0541962425958086</v>
       </c>
       <c r="J14">
-        <v>0.04041664638666947</v>
+        <v>0.0541962425958086</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>103.002876831574</v>
+        <v>103.4275383333333</v>
       </c>
       <c r="N14">
-        <v>103.002876831574</v>
+        <v>310.282615</v>
       </c>
       <c r="O14">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="P14">
-        <v>0.2570403662188817</v>
+        <v>0.2485530285127421</v>
       </c>
       <c r="Q14">
-        <v>183.8872744444797</v>
+        <v>254.2820157003395</v>
       </c>
       <c r="R14">
-        <v>183.8872744444797</v>
+        <v>2288.538141303055</v>
       </c>
       <c r="S14">
-        <v>0.01038870958856856</v>
+        <v>0.0134706402311995</v>
       </c>
       <c r="T14">
-        <v>0.01038870958856856</v>
+        <v>0.0134706402311995</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.78526348099155</v>
+        <v>2.458552333333333</v>
       </c>
       <c r="H15">
-        <v>1.78526348099155</v>
+        <v>7.375657</v>
       </c>
       <c r="I15">
-        <v>0.04041664638666947</v>
+        <v>0.0541962425958086</v>
       </c>
       <c r="J15">
-        <v>0.04041664638666947</v>
+        <v>0.0541962425958086</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>215.340949014042</v>
+        <v>216.130539</v>
       </c>
       <c r="N15">
-        <v>215.340949014042</v>
+        <v>648.391617</v>
       </c>
       <c r="O15">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470273</v>
       </c>
       <c r="P15">
-        <v>0.53737641218506</v>
+        <v>0.5193964865470272</v>
       </c>
       <c r="Q15">
-        <v>384.4403322368325</v>
+        <v>531.368240963041</v>
       </c>
       <c r="R15">
-        <v>384.4403322368325</v>
+        <v>4782.314168667369</v>
       </c>
       <c r="S15">
-        <v>0.02171895242782071</v>
+        <v>0.02814933798831333</v>
       </c>
       <c r="T15">
-        <v>0.02171895242782071</v>
+        <v>0.02814933798831332</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.78526348099155</v>
+        <v>2.458552333333333</v>
       </c>
       <c r="H16">
-        <v>1.78526348099155</v>
+        <v>7.375657</v>
       </c>
       <c r="I16">
-        <v>0.04041664638666947</v>
+        <v>0.0541962425958086</v>
       </c>
       <c r="J16">
-        <v>0.04041664638666947</v>
+        <v>0.0541962425958086</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>59.6543442203264</v>
+        <v>71.607325</v>
       </c>
       <c r="N16">
-        <v>59.6543442203264</v>
+        <v>214.821975</v>
       </c>
       <c r="O16">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="P16">
-        <v>0.1488654973201646</v>
+        <v>0.1720839321833696</v>
       </c>
       <c r="Q16">
-        <v>106.4987222190481</v>
+        <v>176.0503559625083</v>
       </c>
       <c r="R16">
-        <v>106.4987222190481</v>
+        <v>1584.453203662575</v>
       </c>
       <c r="S16">
-        <v>0.006016644164364786</v>
+        <v>0.009326302535450573</v>
       </c>
       <c r="T16">
-        <v>0.006016644164364786</v>
+        <v>0.009326302535450573</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.78526348099155</v>
+        <v>2.458552333333333</v>
       </c>
       <c r="H17">
-        <v>1.78526348099155</v>
+        <v>7.375657</v>
       </c>
       <c r="I17">
-        <v>0.04041664638666947</v>
+        <v>0.0541962425958086</v>
       </c>
       <c r="J17">
-        <v>0.04041664638666947</v>
+        <v>0.0541962425958086</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.7282930447673</v>
+        <v>24.953198</v>
       </c>
       <c r="N17">
-        <v>22.7282930447673</v>
+        <v>74.859594</v>
       </c>
       <c r="O17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="P17">
-        <v>0.05671772427589365</v>
+        <v>0.05996655275686102</v>
       </c>
       <c r="Q17">
-        <v>40.57599155809731</v>
+        <v>61.34874316702867</v>
       </c>
       <c r="R17">
-        <v>40.57599155809731</v>
+        <v>552.138688503258</v>
       </c>
       <c r="S17">
-        <v>0.002292340205915413</v>
+        <v>0.003249961840845195</v>
       </c>
       <c r="T17">
-        <v>0.002292340205915413</v>
+        <v>0.003249961840845195</v>
       </c>
     </row>
   </sheetData>
